--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业基本情况和经营情况/按登记注册类型和行业分限额以上住宿业企业餐饮收入.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业基本情况和经营情况/按登记注册类型和行业分限额以上住宿业企业餐饮收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1717 +623,1355 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.76196</v>
+        <v>120.9</v>
       </c>
       <c r="C2" t="n">
-        <v>10.75786</v>
+        <v>14.9</v>
       </c>
       <c r="D2" t="n">
-        <v>23.37588</v>
+        <v>39.2</v>
       </c>
       <c r="E2" t="n">
-        <v>438.8</v>
+        <v>1143.86846</v>
       </c>
       <c r="F2" t="n">
-        <v>1.64045</v>
+        <v>15.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.60175</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>15.7</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>78.60603</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>280.7</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0.46343</v>
+        <v>0.8</v>
       </c>
       <c r="L2" t="n">
-        <v>333.8842</v>
+        <v>953</v>
       </c>
       <c r="M2" t="n">
-        <v>1.43043</v>
+        <v>1.2</v>
       </c>
       <c r="N2" t="n">
-        <v>122.02765</v>
+        <v>232.1</v>
       </c>
       <c r="O2" t="n">
-        <v>7.51415</v>
+        <v>12</v>
       </c>
       <c r="P2" t="n">
-        <v>2.93122</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>43.4366</v>
+        <v>82.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0.79988</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>8.502980000000001</v>
+        <v>26.8</v>
       </c>
       <c r="T2" t="n">
-        <v>414.4019</v>
+        <v>1007.3</v>
       </c>
       <c r="U2" t="n">
-        <v>86.12018</v>
+        <v>292.7</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>17.05119</v>
+        <v>15.5</v>
       </c>
       <c r="X2" t="n">
-        <v>38.23235</v>
+        <v>56.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.44481</v>
+        <v>108.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.33327</v>
+        <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.828</v>
+        <v>34.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.08977</v>
+        <v>321.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.98207</v>
+        <v>14.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>51.49987</v>
+        <v>224.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>13.38322</v>
+        <v>63.7</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.22461</v>
+        <v>18.3</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.36145</v>
+        <v>5.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.45157</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI2" t="n">
-        <v>18.21169</v>
+        <v>43.3</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20.98144</v>
+        <v>32.7</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.53637</v>
+        <v>1.2</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>138.5088</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.0294</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.2565</v>
+      </c>
       <c r="E3" t="n">
-        <v>507.8</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>1321.9823</v>
+      </c>
+      <c r="F3" t="n">
+        <v>39.4121</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19.1867</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7122000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>368.8841</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0423</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1113.4757</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.0693</v>
+      </c>
+      <c r="N3" t="n">
+        <v>251.2857</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15.1565</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.1504</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>87.8113</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.6257</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31.1875</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1164.2867</v>
+      </c>
+      <c r="U3" t="n">
+        <v>384.0406</v>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>17.2824</v>
+      </c>
+      <c r="X3" t="n">
+        <v>61.9711</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>120.6953</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.4152</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>37.7636</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>340.3047</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13.7744</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>243.9754</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>60.1036</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>22.4514</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5.2784</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.554500000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>50.2653</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34.3346</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.0164</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>167.57111</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.25761</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.32715</v>
+      </c>
       <c r="E4" t="n">
-        <v>607.2</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>1476.03171</v>
+      </c>
+      <c r="F4" t="n">
+        <v>46.8529</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.90915</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.76884</v>
+      </c>
+      <c r="I4" t="n">
+        <v>422.45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.14282</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.04155</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1260.71162</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07677</v>
+      </c>
+      <c r="N4" t="n">
+        <v>272.69264</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16.84715</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.07334</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>89.21024</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.40115</v>
+      </c>
+      <c r="S4" t="n">
+        <v>27.45549</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1286.55145</v>
+      </c>
+      <c r="U4" t="n">
+        <v>439.29715</v>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>16.70542</v>
+      </c>
+      <c r="X4" t="n">
+        <v>65.23868</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>126.10985</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4.47978</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>39.54315</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>396.3279</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15.83648</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>281.36764</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>73.26625</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>25.85753</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.49274</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.23775</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>51.08431</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>39.72623</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.30108</v>
+      </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>178.03795</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.37786</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.11467</v>
+      </c>
       <c r="E5" t="n">
-        <v>715.70944</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+        <v>1374.45077</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.97316</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26.22622</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.71987</v>
+      </c>
+      <c r="I5" t="n">
+        <v>448.54091</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.35085</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.26464</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1179.72155</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.35505</v>
+      </c>
+      <c r="N5" t="n">
+        <v>190.17525</v>
+      </c>
+      <c r="O5" t="n">
+        <v>38.12725</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.23965</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>79.84857</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.22289</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25.41328</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1170.1866</v>
+      </c>
+      <c r="U5" t="n">
+        <v>486.66816</v>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>14.22409</v>
+      </c>
+      <c r="X5" t="n">
+        <v>57.96115</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>114.88065</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.79604</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>38.54852</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>403.24566</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.48187</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>317.61387</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>47.47198</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>26.67794</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2.94326</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4.13249</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>52.06255</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>25.52102</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.08392</v>
+      </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.05119999999999</v>
+        <v>180.87786</v>
       </c>
       <c r="C6" t="n">
-        <v>14.1127</v>
+        <v>9.84083</v>
       </c>
       <c r="D6" t="n">
-        <v>36.8834</v>
+        <v>34.35181</v>
       </c>
       <c r="E6" t="n">
-        <v>887.6695999999999</v>
+        <v>1333.5</v>
       </c>
       <c r="F6" t="n">
-        <v>9.129200000000001</v>
+        <v>12.88408</v>
       </c>
       <c r="G6" t="n">
-        <v>11.3044</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>23.39731</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.66214</v>
+      </c>
       <c r="I6" t="n">
-        <v>194.9474</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>459.69659</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.10493</v>
+      </c>
       <c r="K6" t="n">
-        <v>0.9268999999999999</v>
+        <v>0.29719</v>
       </c>
       <c r="L6" t="n">
-        <v>726.7952</v>
+        <v>1147.19022</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9899</v>
+        <v>0.26672</v>
       </c>
       <c r="N6" t="n">
-        <v>199.8268</v>
+        <v>169.57613</v>
       </c>
       <c r="O6" t="n">
-        <v>11.3976</v>
+        <v>39.22017</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2453</v>
+        <v>0.94629</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.2685</v>
+        <v>71.21426</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7985</v>
+        <v>1.52194</v>
       </c>
       <c r="S6" t="n">
-        <v>18.4738</v>
+        <v>22.83754</v>
       </c>
       <c r="T6" t="n">
-        <v>794.314</v>
+        <v>1129.19767</v>
       </c>
       <c r="U6" t="n">
-        <v>206.345</v>
+        <v>498.91676</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>14.4932</v>
+        <v>17.15352</v>
       </c>
       <c r="X6" t="n">
-        <v>51.1995</v>
+        <v>54.37794</v>
       </c>
       <c r="Y6" t="n">
-        <v>89.60599999999999</v>
+        <v>115.06836</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.953</v>
+        <v>4.18909</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.9602</v>
+        <v>39.24288</v>
       </c>
       <c r="AB6" t="n">
-        <v>234.1973</v>
+        <v>391.7509</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.1206</v>
+        <v>11.00513</v>
       </c>
       <c r="AD6" t="n">
-        <v>159.8441</v>
+        <v>314.36884</v>
       </c>
       <c r="AE6" t="n">
-        <v>49.446</v>
+        <v>42.49745</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.7867</v>
+        <v>23.87948</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.5672</v>
+        <v>1.98604</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.9467</v>
+        <v>3.42756</v>
       </c>
       <c r="AI6" t="n">
-        <v>34.0376</v>
+        <v>47.70437</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29.7454</v>
+        <v>20.94438</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.4051</v>
+        <v>0.47584</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.45085</v>
+        <v>191.5583</v>
       </c>
       <c r="C7" t="n">
-        <v>13.01307</v>
+        <v>8.6213</v>
       </c>
       <c r="D7" t="n">
-        <v>33.95201</v>
+        <v>33.2361</v>
       </c>
       <c r="E7" t="n">
-        <v>931.7793</v>
+        <v>1366.0564</v>
       </c>
       <c r="F7" t="n">
-        <v>12.02172</v>
+        <v>11.6018</v>
       </c>
       <c r="G7" t="n">
-        <v>13.58553</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>26.1443</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.6464</v>
+      </c>
       <c r="I7" t="n">
-        <v>218.20021</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>483.5872</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8847</v>
+      </c>
       <c r="K7" t="n">
-        <v>0.35469</v>
+        <v>0.3248</v>
       </c>
       <c r="L7" t="n">
-        <v>769.9401800000001</v>
+        <v>1180.4057</v>
       </c>
       <c r="M7" t="n">
-        <v>1.29295</v>
+        <v>0.1641</v>
       </c>
       <c r="N7" t="n">
-        <v>204.90703</v>
+        <v>163.8949</v>
       </c>
       <c r="O7" t="n">
-        <v>9.90855</v>
+        <v>43.8748</v>
       </c>
       <c r="P7" t="n">
-        <v>2.24208</v>
+        <v>1.7056</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.02203</v>
+        <v>71.3407</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15887</v>
+        <v>1.7067</v>
       </c>
       <c r="S7" t="n">
-        <v>20.89808</v>
+        <v>24.131</v>
       </c>
       <c r="T7" t="n">
-        <v>824.74292</v>
+        <v>1148.3546</v>
       </c>
       <c r="U7" t="n">
-        <v>228.10876</v>
+        <v>527.4618</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>13.89088</v>
+        <v>13.715</v>
       </c>
       <c r="X7" t="n">
-        <v>50.88625</v>
+        <v>54.1643</v>
       </c>
       <c r="Y7" t="n">
-        <v>91.81708999999999</v>
+        <v>114.3106</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.28331</v>
+        <v>2.581</v>
       </c>
       <c r="AA7" t="n">
-        <v>24.75665</v>
+        <v>42.9658</v>
       </c>
       <c r="AB7" t="n">
-        <v>250.3042</v>
+        <v>405.8606</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.77965</v>
+        <v>11.4732</v>
       </c>
       <c r="AD7" t="n">
-        <v>173.64398</v>
+        <v>331.3058</v>
       </c>
       <c r="AE7" t="n">
-        <v>50.86871</v>
+        <v>38.9381</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.01186</v>
+        <v>24.1442</v>
       </c>
       <c r="AG7" t="n">
-        <v>4.30567</v>
+        <v>2.4926</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.17936</v>
+        <v>3.5597</v>
       </c>
       <c r="AI7" t="n">
-        <v>34.71585</v>
+        <v>47.2413</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28.39759</v>
+        <v>18.2931</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.41595</v>
+        <v>0.2981</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120.9</v>
+        <v>206.9154</v>
       </c>
       <c r="C8" t="n">
-        <v>14.9</v>
+        <v>7.9148</v>
       </c>
       <c r="D8" t="n">
-        <v>39.2</v>
+        <v>29.2738</v>
       </c>
       <c r="E8" t="n">
-        <v>1143.86846</v>
+        <v>1405.8207</v>
       </c>
       <c r="F8" t="n">
-        <v>15.9</v>
+        <v>8.716699999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>25.0918</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3526</v>
+      </c>
       <c r="I8" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>511.3437</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9798</v>
+      </c>
       <c r="K8" t="n">
-        <v>0.8</v>
+        <v>0.235</v>
       </c>
       <c r="L8" t="n">
-        <v>953</v>
+        <v>1220.8648</v>
       </c>
       <c r="M8" t="n">
-        <v>1.2</v>
+        <v>0.1994</v>
       </c>
       <c r="N8" t="n">
-        <v>232.1</v>
+        <v>156.6173</v>
       </c>
       <c r="O8" t="n">
-        <v>12</v>
+        <v>49.7613</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>0.7672</v>
       </c>
       <c r="Q8" t="n">
-        <v>82.8</v>
+        <v>63.4659</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.5674</v>
       </c>
       <c r="S8" t="n">
-        <v>26.8</v>
+        <v>21.3578</v>
       </c>
       <c r="T8" t="n">
-        <v>1007.3</v>
+        <v>1173.8138</v>
       </c>
       <c r="U8" t="n">
-        <v>292.7</v>
+        <v>561.1045</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>15.5</v>
+        <v>13.4591</v>
       </c>
       <c r="X8" t="n">
-        <v>56.4</v>
+        <v>55.1655</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.1</v>
+        <v>121.49</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.1</v>
+        <v>4.5525</v>
       </c>
       <c r="AA8" t="n">
-        <v>34.1</v>
+        <v>47.3331</v>
       </c>
       <c r="AB8" t="n">
-        <v>321.8</v>
+        <v>424.5841</v>
       </c>
       <c r="AC8" t="n">
-        <v>14.9</v>
+        <v>12.0618</v>
       </c>
       <c r="AD8" t="n">
-        <v>224.9</v>
+        <v>351.4451</v>
       </c>
       <c r="AE8" t="n">
-        <v>63.7</v>
+        <v>36.9657</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.3</v>
+        <v>24.1122</v>
       </c>
       <c r="AG8" t="n">
-        <v>5.3</v>
+        <v>1.5017</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.199999999999999</v>
+        <v>3.5049</v>
       </c>
       <c r="AI8" t="n">
-        <v>43.3</v>
+        <v>47.3257</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32.7</v>
+        <v>17.5104</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.2</v>
+        <v>0.3002</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.5088</v>
+        <v>210.331</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0294</v>
+        <v>8.557</v>
       </c>
       <c r="D9" t="n">
-        <v>39.2565</v>
+        <v>25.765</v>
       </c>
       <c r="E9" t="n">
-        <v>1321.9823</v>
+        <v>1403.3174</v>
       </c>
       <c r="F9" t="n">
-        <v>39.4121</v>
+        <v>5.858</v>
       </c>
       <c r="G9" t="n">
-        <v>19.1867</v>
+        <v>26.079</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7122000000000001</v>
+        <v>3.82</v>
       </c>
       <c r="I9" t="n">
-        <v>368.8841</v>
+        <v>518.6950000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.263</v>
+        <v>1.107</v>
       </c>
       <c r="K9" t="n">
-        <v>1.0423</v>
+        <v>0.165</v>
       </c>
       <c r="L9" t="n">
-        <v>1113.4757</v>
+        <v>1224.451</v>
       </c>
       <c r="M9" t="n">
-        <v>1.0693</v>
+        <v>0.194</v>
       </c>
       <c r="N9" t="n">
-        <v>251.2857</v>
+        <v>139.219</v>
       </c>
       <c r="O9" t="n">
-        <v>15.1565</v>
+        <v>56.45</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1504</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.8113</v>
+        <v>58.626</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6257</v>
+        <v>1.094</v>
       </c>
       <c r="S9" t="n">
-        <v>31.1875</v>
+        <v>19.39</v>
       </c>
       <c r="T9" t="n">
-        <v>1164.2867</v>
+        <v>1166.907</v>
       </c>
       <c r="U9" t="n">
-        <v>384.0406</v>
+        <v>575.144</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>17.2824</v>
+        <v>12.105</v>
       </c>
       <c r="X9" t="n">
-        <v>61.9711</v>
+        <v>51.295</v>
       </c>
       <c r="Y9" t="n">
-        <v>120.6953</v>
+        <v>120.24</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.4152</v>
+        <v>4.062</v>
       </c>
       <c r="AA9" t="n">
-        <v>37.7636</v>
+        <v>51.672</v>
       </c>
       <c r="AB9" t="n">
-        <v>340.3047</v>
+        <v>442.135</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.7744</v>
+        <v>11.154</v>
       </c>
       <c r="AD9" t="n">
-        <v>243.9754</v>
+        <v>378.466</v>
       </c>
       <c r="AE9" t="n">
-        <v>60.1036</v>
+        <v>30.553</v>
       </c>
       <c r="AF9" t="n">
-        <v>22.4514</v>
+        <v>21.963</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.2784</v>
+        <v>1.404</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.554500000000001</v>
+        <v>3.143</v>
       </c>
       <c r="AI9" t="n">
-        <v>50.2653</v>
+        <v>43.598</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34.3346</v>
+        <v>13.951</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.0164</v>
+        <v>0.238</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.57111</v>
+        <v>198.1</v>
       </c>
       <c r="C10" t="n">
-        <v>16.25761</v>
+        <v>7.1</v>
       </c>
       <c r="D10" t="n">
-        <v>43.32715</v>
+        <v>30.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1476.03171</v>
+        <v>1407.7</v>
       </c>
       <c r="F10" t="n">
-        <v>46.8529</v>
+        <v>0.6</v>
       </c>
       <c r="G10" t="n">
-        <v>21.90915</v>
+        <v>21.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0.76884</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>422.45</v>
+        <v>503.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.14282</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.04155</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1260.71162</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07677</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>272.69264</v>
+        <v>114.6</v>
       </c>
       <c r="O10" t="n">
-        <v>16.84715</v>
+        <v>61.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.07334</v>
+        <v>1.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.21024</v>
+        <v>63.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.40115</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>27.45549</v>
+        <v>21.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1286.55145</v>
+        <v>1185.8</v>
       </c>
       <c r="U10" t="n">
-        <v>439.29715</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>564.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.7</v>
+      </c>
       <c r="W10" t="n">
-        <v>16.70542</v>
+        <v>13.2</v>
       </c>
       <c r="X10" t="n">
-        <v>65.23868</v>
+        <v>47.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.10985</v>
+        <v>118.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.47978</v>
+        <v>3.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>39.54315</v>
+        <v>53.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>396.3279</v>
+        <v>487.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>15.83648</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>281.36764</v>
+        <v>438.7</v>
       </c>
       <c r="AE10" t="n">
-        <v>73.26625</v>
+        <v>25.8</v>
       </c>
       <c r="AF10" t="n">
-        <v>25.85753</v>
+        <v>14.9</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.49274</v>
+        <v>1.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.23775</v>
+        <v>2.6</v>
       </c>
       <c r="AI10" t="n">
-        <v>51.08431</v>
+        <v>42.9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>39.72623</v>
+        <v>11.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.30108</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.03795</v>
+        <v>237.3137</v>
       </c>
       <c r="C11" t="n">
-        <v>13.37786</v>
+        <v>5.724</v>
       </c>
       <c r="D11" t="n">
-        <v>39.11467</v>
+        <v>26.8427</v>
       </c>
       <c r="E11" t="n">
-        <v>1374.45077</v>
+        <v>1462.966</v>
       </c>
       <c r="F11" t="n">
-        <v>14.97316</v>
+        <v>0.1461</v>
       </c>
       <c r="G11" t="n">
-        <v>26.22622</v>
+        <v>31.454</v>
       </c>
       <c r="H11" t="n">
-        <v>0.71987</v>
+        <v>1.0596</v>
       </c>
       <c r="I11" t="n">
-        <v>448.54091</v>
+        <v>492.1005</v>
       </c>
       <c r="J11" t="n">
-        <v>0.35085</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.26464</v>
-      </c>
+        <v>0.4986</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1179.72155</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.35505</v>
-      </c>
+        <v>1276.9749</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>190.17525</v>
+        <v>114.6737</v>
       </c>
       <c r="O11" t="n">
-        <v>38.12725</v>
+        <v>66.227</v>
       </c>
       <c r="P11" t="n">
-        <v>1.23965</v>
+        <v>0.7731</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.84857</v>
+        <v>64.3205</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22289</v>
+        <v>6.1741</v>
       </c>
       <c r="S11" t="n">
-        <v>25.41328</v>
+        <v>24.5205</v>
       </c>
       <c r="T11" t="n">
-        <v>1170.1866</v>
+        <v>1191.3994</v>
       </c>
       <c r="U11" t="n">
-        <v>486.66816</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>558.3271</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.4771</v>
+      </c>
       <c r="W11" t="n">
-        <v>14.22409</v>
+        <v>11.5743</v>
       </c>
       <c r="X11" t="n">
-        <v>57.96115</v>
+        <v>49.2968</v>
       </c>
       <c r="Y11" t="n">
-        <v>114.88065</v>
+        <v>121.6708</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.79604</v>
+        <v>1.3576</v>
       </c>
       <c r="AA11" t="n">
-        <v>38.54852</v>
+        <v>58.9437</v>
       </c>
       <c r="AB11" t="n">
-        <v>403.24566</v>
+        <v>548.0089</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.48187</v>
+        <v>9.083600000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>317.61387</v>
+        <v>496.3527</v>
       </c>
       <c r="AE11" t="n">
-        <v>47.47198</v>
+        <v>27.9795</v>
       </c>
       <c r="AF11" t="n">
-        <v>26.67794</v>
+        <v>14.5933</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.94326</v>
+        <v>1.2063</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.13249</v>
+        <v>2.6002</v>
       </c>
       <c r="AI11" t="n">
-        <v>52.06255</v>
+        <v>41.4152</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25.52102</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1.08392</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>10.5978</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>0.3223</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>180.87786</v>
+        <v>194.6629</v>
       </c>
       <c r="C12" t="n">
-        <v>9.84083</v>
+        <v>2.0938</v>
       </c>
       <c r="D12" t="n">
-        <v>34.35181</v>
+        <v>15.0987</v>
       </c>
       <c r="E12" t="n">
-        <v>1333.5</v>
+        <v>1099.993</v>
       </c>
       <c r="F12" t="n">
-        <v>12.88408</v>
+        <v>0.228</v>
       </c>
       <c r="G12" t="n">
-        <v>23.39731</v>
+        <v>25.8184</v>
       </c>
       <c r="H12" t="n">
-        <v>2.66214</v>
+        <v>0.4991</v>
       </c>
       <c r="I12" t="n">
-        <v>459.69659</v>
+        <v>304.6781</v>
       </c>
       <c r="J12" t="n">
-        <v>0.10493</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.29719</v>
-      </c>
+        <v>0.2421</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1147.19022</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.26672</v>
-      </c>
+        <v>985.095</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>169.57613</v>
+        <v>88.5347</v>
       </c>
       <c r="O12" t="n">
-        <v>39.22017</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.94629</v>
-      </c>
+        <v>50.121</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>71.21426</v>
+        <v>35.4544</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52194</v>
+        <v>0.4817</v>
       </c>
       <c r="S12" t="n">
-        <v>22.83754</v>
+        <v>17.2812</v>
       </c>
       <c r="T12" t="n">
-        <v>1129.19767</v>
+        <v>876.4321</v>
       </c>
       <c r="U12" t="n">
-        <v>498.91676</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>354.7992</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.8368</v>
+      </c>
       <c r="W12" t="n">
-        <v>17.15352</v>
+        <v>7.1579</v>
       </c>
       <c r="X12" t="n">
-        <v>54.37794</v>
+        <v>30.2842</v>
       </c>
       <c r="Y12" t="n">
-        <v>115.06836</v>
+        <v>79.44459999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.18909</v>
+        <v>0.9111</v>
       </c>
       <c r="AA12" t="n">
-        <v>39.24288</v>
+        <v>40.8494</v>
       </c>
       <c r="AB12" t="n">
-        <v>391.7509</v>
+        <v>507.9137</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.00513</v>
+        <v>6.3664</v>
       </c>
       <c r="AD12" t="n">
-        <v>314.36884</v>
+        <v>466.5155</v>
       </c>
       <c r="AE12" t="n">
-        <v>42.49745</v>
+        <v>28.3188</v>
       </c>
       <c r="AF12" t="n">
-        <v>23.87948</v>
+        <v>6.7137</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.98604</v>
+        <v>1.3931</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.42756</v>
+        <v>2.7019</v>
       </c>
       <c r="AI12" t="n">
-        <v>47.70437</v>
+        <v>22.4192</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20.94438</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.47584</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>7.1053</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>0.2432</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>191.5583</v>
+        <v>226.8044</v>
       </c>
       <c r="C13" t="n">
-        <v>8.6213</v>
+        <v>2.4465</v>
       </c>
       <c r="D13" t="n">
-        <v>33.2361</v>
+        <v>19.2034</v>
       </c>
       <c r="E13" t="n">
-        <v>1366.0564</v>
+        <v>1290.0989</v>
       </c>
       <c r="F13" t="n">
-        <v>11.6018</v>
+        <v>0.2095</v>
       </c>
       <c r="G13" t="n">
-        <v>26.1443</v>
+        <v>30.5429</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6464</v>
+        <v>0.8074</v>
       </c>
       <c r="I13" t="n">
-        <v>483.5872</v>
+        <v>356.6871</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8847</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.3248</v>
-      </c>
+        <v>1.1613</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1180.4057</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.1641</v>
-      </c>
+        <v>1151.4518</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>163.8949</v>
+        <v>88.76000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>43.8748</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.7056</v>
-      </c>
+        <v>65.30889999999999</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>71.3407</v>
+        <v>44.4523</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7067</v>
+        <v>0.354</v>
       </c>
       <c r="S13" t="n">
-        <v>24.131</v>
+        <v>21.6411</v>
       </c>
       <c r="T13" t="n">
-        <v>1148.3546</v>
+        <v>1028.2148</v>
       </c>
       <c r="U13" t="n">
-        <v>527.4618</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
+        <v>421.9961</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4.2773</v>
+      </c>
       <c r="W13" t="n">
-        <v>13.715</v>
+        <v>8.7773</v>
       </c>
       <c r="X13" t="n">
-        <v>54.1643</v>
+        <v>34.3897</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.3106</v>
+        <v>94.1949</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.581</v>
+        <v>2.6832</v>
       </c>
       <c r="AA13" t="n">
-        <v>42.9658</v>
+        <v>47.1834</v>
       </c>
       <c r="AB13" t="n">
-        <v>405.8606</v>
+        <v>611.7243</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.4732</v>
+        <v>7.2868</v>
       </c>
       <c r="AD13" t="n">
-        <v>331.3058</v>
+        <v>563.4159</v>
       </c>
       <c r="AE13" t="n">
-        <v>38.9381</v>
+        <v>32.5529</v>
       </c>
       <c r="AF13" t="n">
-        <v>24.1442</v>
+        <v>8.4686</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.4926</v>
+        <v>0.9096</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.5597</v>
+        <v>3.2361</v>
       </c>
       <c r="AI13" t="n">
-        <v>47.2413</v>
+        <v>17.3817</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18.2931</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.2981</v>
-      </c>
-      <c r="AL13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>206.9154</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7.9148</v>
-      </c>
-      <c r="D14" t="n">
-        <v>29.2738</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1405.8207</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8.716699999999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>25.0918</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.3526</v>
-      </c>
-      <c r="I14" t="n">
-        <v>511.3437</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9798</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1220.8648</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.1994</v>
-      </c>
-      <c r="N14" t="n">
-        <v>156.6173</v>
-      </c>
-      <c r="O14" t="n">
-        <v>49.7613</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.7672</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>63.4659</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.5674</v>
-      </c>
-      <c r="S14" t="n">
-        <v>21.3578</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1173.8138</v>
-      </c>
-      <c r="U14" t="n">
-        <v>561.1045</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>13.4591</v>
-      </c>
-      <c r="X14" t="n">
-        <v>55.1655</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>121.49</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>4.5525</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>47.3331</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>424.5841</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12.0618</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>351.4451</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>36.9657</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>24.1122</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1.5017</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>3.5049</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>47.3257</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>17.5104</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.3002</v>
-      </c>
-      <c r="AL14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>210.331</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8.557</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25.765</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1403.3174</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.858</v>
-      </c>
-      <c r="G15" t="n">
-        <v>26.079</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="I15" t="n">
-        <v>518.6950000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.107</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1224.451</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="N15" t="n">
-        <v>139.219</v>
-      </c>
-      <c r="O15" t="n">
-        <v>56.45</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>58.626</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.094</v>
-      </c>
-      <c r="S15" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1166.907</v>
-      </c>
-      <c r="U15" t="n">
-        <v>575.144</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>12.105</v>
-      </c>
-      <c r="X15" t="n">
-        <v>51.295</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>120.24</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>4.062</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>51.672</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>442.135</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11.154</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>378.466</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>30.553</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>21.963</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1.404</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>43.598</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13.951</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="AL15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1407.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>503.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1226</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>114.6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1185.8</v>
-      </c>
-      <c r="U16" t="n">
-        <v>564.8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W16" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="X16" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>118.2</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>487.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>438.7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>237.3137</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5.724</v>
-      </c>
-      <c r="D17" t="n">
-        <v>26.8427</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1462.966</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1461</v>
-      </c>
-      <c r="G17" t="n">
-        <v>31.454</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.0596</v>
-      </c>
-      <c r="I17" t="n">
-        <v>492.1005</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1276.9749</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>114.6737</v>
-      </c>
-      <c r="O17" t="n">
-        <v>66.227</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.7731</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>64.3205</v>
-      </c>
-      <c r="R17" t="n">
-        <v>6.1741</v>
-      </c>
-      <c r="S17" t="n">
-        <v>24.5205</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1191.3994</v>
-      </c>
-      <c r="U17" t="n">
-        <v>558.3271</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.4771</v>
-      </c>
-      <c r="W17" t="n">
-        <v>11.5743</v>
-      </c>
-      <c r="X17" t="n">
-        <v>49.2968</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>121.6708</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.3576</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>58.9437</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>548.0089</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.083600000000001</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>496.3527</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>27.9795</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14.5933</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.2063</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>2.6002</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>41.4152</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10.5978</v>
-      </c>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="n">
-        <v>0.3223</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>194.6629</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0938</v>
-      </c>
-      <c r="D18" t="n">
-        <v>15.0987</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1099.993</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.228</v>
-      </c>
-      <c r="G18" t="n">
-        <v>25.8184</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.4991</v>
-      </c>
-      <c r="I18" t="n">
-        <v>304.6781</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.2421</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>985.095</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>88.5347</v>
-      </c>
-      <c r="O18" t="n">
-        <v>50.121</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>35.4544</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.4817</v>
-      </c>
-      <c r="S18" t="n">
-        <v>17.2812</v>
-      </c>
-      <c r="T18" t="n">
-        <v>876.4321</v>
-      </c>
-      <c r="U18" t="n">
-        <v>354.7992</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.8368</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7.1579</v>
-      </c>
-      <c r="X18" t="n">
-        <v>30.2842</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>79.44459999999999</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.9111</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>40.8494</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>507.9137</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.3664</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>466.5155</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>28.3188</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>6.7137</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.3931</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>2.7019</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>22.4192</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>7.1053</v>
-      </c>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="n">
-        <v>0.2432</v>
+        <v>7.2347</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>0.2596</v>
       </c>
     </row>
   </sheetData>
